--- a/data/1.2/order(1, 1).xlsx
+++ b/data/1.2/order(1, 1).xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\1.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE9236A-5A3E-4904-8FC3-DA4C12977210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -64,12 +70,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -77,8 +83,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -124,15 +137,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -174,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,9 +227,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,6 +279,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,14 +472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -469,7 +526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -492,16 +549,16 @@
         <v>-12716</v>
       </c>
       <c r="H2">
-        <v>-4.693</v>
+        <v>-4.6929999999999996</v>
       </c>
       <c r="I2">
-        <v>-12.716</v>
+        <v>-12.715999999999999</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>6</v>
@@ -516,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -539,10 +596,10 @@
         <v>-17371</v>
       </c>
       <c r="H3">
-        <v>2.176</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="I3">
-        <v>-17.371</v>
+        <v>-17.370999999999999</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -563,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -595,10 +652,10 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -610,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -633,7 +690,7 @@
         <v>-16026</v>
       </c>
       <c r="H5">
-        <v>1.791</v>
+        <v>1.7909999999999999</v>
       </c>
       <c r="I5">
         <v>-16.026</v>
@@ -657,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -683,7 +740,7 @@
         <v>10.169</v>
       </c>
       <c r="I6">
-        <v>-14.392</v>
+        <v>-14.391999999999999</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -704,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -727,10 +784,10 @@
         <v>-8696</v>
       </c>
       <c r="H7">
-        <v>12.127</v>
+        <v>12.127000000000001</v>
       </c>
       <c r="I7">
-        <v>-8.696</v>
+        <v>-8.6959999999999997</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -751,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -774,10 +831,10 @@
         <v>-15024</v>
       </c>
       <c r="H8">
-        <v>7.763</v>
+        <v>7.7629999999999999</v>
       </c>
       <c r="I8">
-        <v>-15.024</v>
+        <v>-15.023999999999999</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -798,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -824,7 +881,7 @@
         <v>10.846</v>
       </c>
       <c r="I9">
-        <v>-16.361</v>
+        <v>-16.361000000000001</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -845,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -868,19 +925,19 @@
         <v>-5303</v>
       </c>
       <c r="H10">
-        <v>-5.678</v>
+        <v>-5.6779999999999999</v>
       </c>
       <c r="I10">
-        <v>-5.303</v>
+        <v>-5.3029999999999999</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -892,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -915,16 +972,16 @@
         <v>-16592</v>
       </c>
       <c r="H11">
-        <v>-8.818</v>
+        <v>-8.8179999999999996</v>
       </c>
       <c r="I11">
-        <v>-16.592</v>
+        <v>-16.591999999999999</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>3</v>
@@ -939,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -962,16 +1019,16 @@
         <v>-178</v>
       </c>
       <c r="H12">
-        <v>-0.271</v>
+        <v>-0.27100000000000002</v>
       </c>
       <c r="I12">
-        <v>-0.178</v>
+        <v>-0.17799999999999999</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L12">
         <v>7.5</v>
@@ -986,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1009,16 +1066,16 @@
         <v>-7727</v>
       </c>
       <c r="H13">
-        <v>-18.446</v>
+        <v>-18.446000000000002</v>
       </c>
       <c r="I13">
-        <v>-7.727</v>
+        <v>-7.7270000000000003</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L13">
         <v>0.5</v>
@@ -1033,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1059,7 +1116,7 @@
         <v>-13.224</v>
       </c>
       <c r="I14">
-        <v>-7.135</v>
+        <v>-7.1349999999999998</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1080,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1103,19 +1160,19 @@
         <v>-4549</v>
       </c>
       <c r="H15">
-        <v>-5.408</v>
+        <v>-5.4080000000000004</v>
       </c>
       <c r="I15">
-        <v>-4.549</v>
+        <v>-4.5490000000000004</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L15">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1127,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1150,10 +1207,10 @@
         <v>11418</v>
       </c>
       <c r="H16">
-        <v>-7.938</v>
+        <v>-7.9379999999999997</v>
       </c>
       <c r="I16">
-        <v>11.418</v>
+        <v>11.417999999999999</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1162,7 +1219,7 @@
         <v>12</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1174,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1221,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1253,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>8.5</v>
@@ -1268,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1291,16 +1348,16 @@
         <v>-4728</v>
       </c>
       <c r="H19">
-        <v>0.572</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="I19">
-        <v>-4.728</v>
+        <v>-4.7279999999999998</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L19">
         <v>0.5</v>
@@ -1315,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1341,13 +1398,13 @@
         <v>-2.71</v>
       </c>
       <c r="I20">
-        <v>-5.082</v>
+        <v>-5.0819999999999999</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L20">
         <v>6.5</v>
@@ -1362,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1385,7 +1442,7 @@
         <v>-13712</v>
       </c>
       <c r="H21">
-        <v>10.338</v>
+        <v>10.337999999999999</v>
       </c>
       <c r="I21">
         <v>-13.712</v>
@@ -1394,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L21">
         <v>10</v>
@@ -1409,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1432,10 +1489,10 @@
         <v>-4709</v>
       </c>
       <c r="H22">
-        <v>7.288</v>
+        <v>7.2880000000000003</v>
       </c>
       <c r="I22">
-        <v>-4.709</v>
+        <v>-4.7089999999999996</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1456,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1479,16 +1536,16 @@
         <v>-4728</v>
       </c>
       <c r="H23">
-        <v>0.572</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="I23">
-        <v>-4.728</v>
+        <v>-4.7279999999999998</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L23">
         <v>9.5</v>
@@ -1503,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1526,16 +1583,16 @@
         <v>-4728</v>
       </c>
       <c r="H24">
-        <v>0.572</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="I24">
-        <v>-4.728</v>
+        <v>-4.7279999999999998</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L24">
         <v>5.5</v>
@@ -1550,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1573,16 +1630,16 @@
         <v>-4487</v>
       </c>
       <c r="H25">
-        <v>-16.633</v>
+        <v>-16.632999999999999</v>
       </c>
       <c r="I25">
-        <v>-4.487</v>
+        <v>-4.4870000000000001</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="L25">
         <v>7.5</v>
@@ -1597,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1620,16 +1677,16 @@
         <v>-17129</v>
       </c>
       <c r="H26">
-        <v>-0.416</v>
+        <v>-0.41599999999999998</v>
       </c>
       <c r="I26">
-        <v>-17.129</v>
+        <v>-17.129000000000001</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -1644,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1670,13 +1727,13 @@
         <v>-15.478</v>
       </c>
       <c r="I27">
-        <v>-27.171</v>
+        <v>-27.170999999999999</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L27">
         <v>5</v>
@@ -1691,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1714,7 +1771,7 @@
         <v>-12887</v>
       </c>
       <c r="H28">
-        <v>-5.043</v>
+        <v>-5.0430000000000001</v>
       </c>
       <c r="I28">
         <v>-12.887</v>
@@ -1723,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="K28">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L28">
         <v>5.5</v>
@@ -1738,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1761,16 +1818,16 @@
         <v>-9316</v>
       </c>
       <c r="H29">
-        <v>-4.624</v>
+        <v>-4.6239999999999997</v>
       </c>
       <c r="I29">
-        <v>-9.316000000000001</v>
+        <v>-9.3160000000000007</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L29">
         <v>7.5</v>
@@ -1785,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1808,16 +1865,16 @@
         <v>-6023</v>
       </c>
       <c r="H30">
-        <v>-10.752</v>
+        <v>-10.752000000000001</v>
       </c>
       <c r="I30">
-        <v>-6.023</v>
+        <v>-6.0229999999999997</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="L30">
         <v>2.5</v>
@@ -1832,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1858,16 +1915,16 @@
         <v>-11.254</v>
       </c>
       <c r="I31">
-        <v>-1.572</v>
+        <v>-1.5720000000000001</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -1879,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1911,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="K32">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -1926,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1949,10 +2006,10 @@
         <v>-73</v>
       </c>
       <c r="H33">
-        <v>-0.059</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="I33">
-        <v>-0.073</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -1973,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1996,7 +2053,7 @@
         <v>-4170</v>
       </c>
       <c r="H34">
-        <v>3.837</v>
+        <v>3.8370000000000002</v>
       </c>
       <c r="I34">
         <v>-4.17</v>
@@ -2020,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2043,7 +2100,7 @@
         <v>-1496</v>
       </c>
       <c r="H35">
-        <v>-11.922</v>
+        <v>-11.922000000000001</v>
       </c>
       <c r="I35">
         <v>-1.496</v>
@@ -2052,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="K35">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="L35">
         <v>4.5</v>
@@ -2067,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2090,10 +2147,10 @@
         <v>-12697</v>
       </c>
       <c r="H36">
-        <v>-17.577</v>
+        <v>-17.577000000000002</v>
       </c>
       <c r="I36">
-        <v>-12.697</v>
+        <v>-12.696999999999999</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2114,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2137,10 +2194,10 @@
         <v>-5987</v>
       </c>
       <c r="H37">
-        <v>19.069</v>
+        <v>19.068999999999999</v>
       </c>
       <c r="I37">
-        <v>-5.987</v>
+        <v>-5.9870000000000001</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2161,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2187,13 +2244,13 @@
         <v>-15.478</v>
       </c>
       <c r="I38">
-        <v>-27.171</v>
+        <v>-27.170999999999999</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L38">
         <v>6</v>
@@ -2208,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2231,16 +2288,16 @@
         <v>-7162</v>
       </c>
       <c r="H39">
-        <v>-16.711</v>
+        <v>-16.710999999999999</v>
       </c>
       <c r="I39">
-        <v>-7.162</v>
+        <v>-7.1619999999999999</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="L39">
         <v>9.5</v>
@@ -2255,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2278,16 +2335,16 @@
         <v>-7287</v>
       </c>
       <c r="H40">
-        <v>3.111</v>
+        <v>3.1110000000000002</v>
       </c>
       <c r="I40">
-        <v>-7.287</v>
+        <v>-7.2869999999999999</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L40">
         <v>5.5</v>
@@ -2302,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2325,7 +2382,7 @@
         <v>-9190</v>
       </c>
       <c r="H41">
-        <v>17.836</v>
+        <v>17.835999999999999</v>
       </c>
       <c r="I41">
         <v>-9.19</v>
@@ -2349,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2372,7 +2429,7 @@
         <v>-18471</v>
       </c>
       <c r="H42">
-        <v>-3.712</v>
+        <v>-3.7120000000000002</v>
       </c>
       <c r="I42">
         <v>-18.471</v>
@@ -2381,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="K42">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L42">
         <v>10.5</v>
@@ -2396,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2419,7 +2476,7 @@
         <v>-7931</v>
       </c>
       <c r="H43">
-        <v>20.906</v>
+        <v>20.905999999999999</v>
       </c>
       <c r="I43">
         <v>-7.931</v>
@@ -2443,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2466,19 +2523,19 @@
         <v>-12688</v>
       </c>
       <c r="H44">
-        <v>7.219</v>
+        <v>7.2190000000000003</v>
       </c>
       <c r="I44">
-        <v>-12.688</v>
+        <v>-12.688000000000001</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="K44">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -2490,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2513,16 +2570,16 @@
         <v>-6269</v>
       </c>
       <c r="H45">
-        <v>4.122</v>
+        <v>4.1219999999999999</v>
       </c>
       <c r="I45">
-        <v>-6.269</v>
+        <v>-6.2690000000000001</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L45">
         <v>8</v>
@@ -2537,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2560,10 +2617,10 @@
         <v>-5049</v>
       </c>
       <c r="H46">
-        <v>5.821</v>
+        <v>5.8209999999999997</v>
       </c>
       <c r="I46">
-        <v>-5.049</v>
+        <v>-5.0490000000000004</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2584,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2616,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="K47">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L47">
         <v>3</v>
@@ -2631,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2654,16 +2711,16 @@
         <v>-3322</v>
       </c>
       <c r="H48">
-        <v>-3.096</v>
+        <v>-3.0960000000000001</v>
       </c>
       <c r="I48">
-        <v>-3.322</v>
+        <v>-3.3220000000000001</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L48">
         <v>3</v>
@@ -2678,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2704,16 +2761,16 @@
         <v>-15.478</v>
       </c>
       <c r="I49">
-        <v>-27.171</v>
+        <v>-27.170999999999999</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -2725,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2757,10 +2814,10 @@
         <v>1</v>
       </c>
       <c r="K50">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L50">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -2772,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2795,7 +2852,7 @@
         <v>-23288</v>
       </c>
       <c r="H51">
-        <v>-2.349</v>
+        <v>-2.3490000000000002</v>
       </c>
       <c r="I51">
         <v>-23.288</v>
@@ -2804,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="K51">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L51">
         <v>8</v>
@@ -2820,6 +2877,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/1.2/order(1, 1).xlsx
+++ b/data/1.2/order(1, 1).xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\1.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE9236A-5A3E-4904-8FC3-DA4C12977210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>createTime</t>
   </si>
@@ -55,6 +49,12 @@
     <t>serviceStartTime</t>
   </si>
   <si>
+    <t>retainable</t>
+  </si>
+  <si>
+    <t>current_time</t>
+  </si>
+  <si>
     <t>district_x</t>
   </si>
   <si>
@@ -70,12 +70,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -83,15 +83,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -137,23 +130,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -195,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,27 +212,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,24 +246,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,16 +421,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -525,8 +474,14 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -549,10 +504,10 @@
         <v>-12716</v>
       </c>
       <c r="H2">
-        <v>-4.6929999999999996</v>
+        <v>-4.693</v>
       </c>
       <c r="I2">
-        <v>-12.715999999999999</v>
+        <v>-12.716</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -567,13 +522,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -596,10 +557,10 @@
         <v>-17371</v>
       </c>
       <c r="H3">
-        <v>2.1760000000000002</v>
+        <v>2.176</v>
       </c>
       <c r="I3">
-        <v>-17.370999999999999</v>
+        <v>-17.371</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -614,13 +575,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -661,13 +628,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -690,7 +663,7 @@
         <v>-16026</v>
       </c>
       <c r="H5">
-        <v>1.7909999999999999</v>
+        <v>1.791</v>
       </c>
       <c r="I5">
         <v>-16.026</v>
@@ -708,13 +681,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -740,7 +719,7 @@
         <v>10.169</v>
       </c>
       <c r="I6">
-        <v>-14.391999999999999</v>
+        <v>-14.392</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -755,13 +734,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -784,10 +769,10 @@
         <v>-8696</v>
       </c>
       <c r="H7">
-        <v>12.127000000000001</v>
+        <v>12.127</v>
       </c>
       <c r="I7">
-        <v>-8.6959999999999997</v>
+        <v>-8.696</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -802,13 +787,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -831,10 +822,10 @@
         <v>-15024</v>
       </c>
       <c r="H8">
-        <v>7.7629999999999999</v>
+        <v>7.763</v>
       </c>
       <c r="I8">
-        <v>-15.023999999999999</v>
+        <v>-15.024</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -849,13 +840,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -881,7 +878,7 @@
         <v>10.846</v>
       </c>
       <c r="I9">
-        <v>-16.361000000000001</v>
+        <v>-16.361</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -896,13 +893,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -925,10 +928,10 @@
         <v>-5303</v>
       </c>
       <c r="H10">
-        <v>-5.6779999999999999</v>
+        <v>-5.678</v>
       </c>
       <c r="I10">
-        <v>-5.3029999999999999</v>
+        <v>-5.303</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -943,13 +946,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -972,10 +981,10 @@
         <v>-16592</v>
       </c>
       <c r="H11">
-        <v>-8.8179999999999996</v>
+        <v>-8.818</v>
       </c>
       <c r="I11">
-        <v>-16.591999999999999</v>
+        <v>-16.592</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -990,13 +999,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1019,10 +1034,10 @@
         <v>-178</v>
       </c>
       <c r="H12">
-        <v>-0.27100000000000002</v>
+        <v>-0.271</v>
       </c>
       <c r="I12">
-        <v>-0.17799999999999999</v>
+        <v>-0.178</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1037,13 +1052,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1066,10 +1087,10 @@
         <v>-7727</v>
       </c>
       <c r="H13">
-        <v>-18.446000000000002</v>
+        <v>-18.446</v>
       </c>
       <c r="I13">
-        <v>-7.7270000000000003</v>
+        <v>-7.727</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1084,13 +1105,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1116,7 +1143,7 @@
         <v>-13.224</v>
       </c>
       <c r="I14">
-        <v>-7.1349999999999998</v>
+        <v>-7.135</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1131,13 +1158,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1160,10 +1193,10 @@
         <v>-4549</v>
       </c>
       <c r="H15">
-        <v>-5.4080000000000004</v>
+        <v>-5.408</v>
       </c>
       <c r="I15">
-        <v>-4.5490000000000004</v>
+        <v>-4.549</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1178,13 +1211,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1207,10 +1246,10 @@
         <v>11418</v>
       </c>
       <c r="H16">
-        <v>-7.9379999999999997</v>
+        <v>-7.938</v>
       </c>
       <c r="I16">
-        <v>11.417999999999999</v>
+        <v>11.418</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1225,13 +1264,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1272,13 +1317,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1319,13 +1370,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1348,10 +1405,10 @@
         <v>-4728</v>
       </c>
       <c r="H19">
-        <v>0.57199999999999995</v>
+        <v>0.572</v>
       </c>
       <c r="I19">
-        <v>-4.7279999999999998</v>
+        <v>-4.728</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1366,13 +1423,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1398,7 +1461,7 @@
         <v>-2.71</v>
       </c>
       <c r="I20">
-        <v>-5.0819999999999999</v>
+        <v>-5.082</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1413,13 +1476,19 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1442,7 +1511,7 @@
         <v>-13712</v>
       </c>
       <c r="H21">
-        <v>10.337999999999999</v>
+        <v>10.338</v>
       </c>
       <c r="I21">
         <v>-13.712</v>
@@ -1460,13 +1529,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1489,10 +1564,10 @@
         <v>-4709</v>
       </c>
       <c r="H22">
-        <v>7.2880000000000003</v>
+        <v>7.288</v>
       </c>
       <c r="I22">
-        <v>-4.7089999999999996</v>
+        <v>-4.709</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1507,13 +1582,19 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1536,10 +1617,10 @@
         <v>-4728</v>
       </c>
       <c r="H23">
-        <v>0.57199999999999995</v>
+        <v>0.572</v>
       </c>
       <c r="I23">
-        <v>-4.7279999999999998</v>
+        <v>-4.728</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1554,13 +1635,19 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1583,10 +1670,10 @@
         <v>-4728</v>
       </c>
       <c r="H24">
-        <v>0.57199999999999995</v>
+        <v>0.572</v>
       </c>
       <c r="I24">
-        <v>-4.7279999999999998</v>
+        <v>-4.728</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1601,13 +1688,19 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1630,10 +1723,10 @@
         <v>-4487</v>
       </c>
       <c r="H25">
-        <v>-16.632999999999999</v>
+        <v>-16.633</v>
       </c>
       <c r="I25">
-        <v>-4.4870000000000001</v>
+        <v>-4.487</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1648,13 +1741,19 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1677,10 +1776,10 @@
         <v>-17129</v>
       </c>
       <c r="H26">
-        <v>-0.41599999999999998</v>
+        <v>-0.416</v>
       </c>
       <c r="I26">
-        <v>-17.129000000000001</v>
+        <v>-17.129</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1695,13 +1794,19 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1727,7 +1832,7 @@
         <v>-15.478</v>
       </c>
       <c r="I27">
-        <v>-27.170999999999999</v>
+        <v>-27.171</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1742,13 +1847,19 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1771,7 +1882,7 @@
         <v>-12887</v>
       </c>
       <c r="H28">
-        <v>-5.0430000000000001</v>
+        <v>-5.043</v>
       </c>
       <c r="I28">
         <v>-12.887</v>
@@ -1789,13 +1900,19 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1818,10 +1935,10 @@
         <v>-9316</v>
       </c>
       <c r="H29">
-        <v>-4.6239999999999997</v>
+        <v>-4.624</v>
       </c>
       <c r="I29">
-        <v>-9.3160000000000007</v>
+        <v>-9.316000000000001</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1836,13 +1953,19 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1865,10 +1988,10 @@
         <v>-6023</v>
       </c>
       <c r="H30">
-        <v>-10.752000000000001</v>
+        <v>-10.752</v>
       </c>
       <c r="I30">
-        <v>-6.0229999999999997</v>
+        <v>-6.023</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1883,13 +2006,19 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1915,7 +2044,7 @@
         <v>-11.254</v>
       </c>
       <c r="I31">
-        <v>-1.5720000000000001</v>
+        <v>-1.572</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1930,13 +2059,19 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1977,13 +2112,19 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2006,10 +2147,10 @@
         <v>-73</v>
       </c>
       <c r="H33">
-        <v>-5.8999999999999997E-2</v>
+        <v>-0.059</v>
       </c>
       <c r="I33">
-        <v>-7.2999999999999995E-2</v>
+        <v>-0.073</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2024,13 +2165,19 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2053,7 +2200,7 @@
         <v>-4170</v>
       </c>
       <c r="H34">
-        <v>3.8370000000000002</v>
+        <v>3.837</v>
       </c>
       <c r="I34">
         <v>-4.17</v>
@@ -2071,13 +2218,19 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2100,7 +2253,7 @@
         <v>-1496</v>
       </c>
       <c r="H35">
-        <v>-11.922000000000001</v>
+        <v>-11.922</v>
       </c>
       <c r="I35">
         <v>-1.496</v>
@@ -2118,13 +2271,19 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2147,10 +2306,10 @@
         <v>-12697</v>
       </c>
       <c r="H36">
-        <v>-17.577000000000002</v>
+        <v>-17.577</v>
       </c>
       <c r="I36">
-        <v>-12.696999999999999</v>
+        <v>-12.697</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2165,13 +2324,19 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2194,10 +2359,10 @@
         <v>-5987</v>
       </c>
       <c r="H37">
-        <v>19.068999999999999</v>
+        <v>19.069</v>
       </c>
       <c r="I37">
-        <v>-5.9870000000000001</v>
+        <v>-5.987</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2212,13 +2377,19 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2244,7 +2415,7 @@
         <v>-15.478</v>
       </c>
       <c r="I38">
-        <v>-27.170999999999999</v>
+        <v>-27.171</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2259,13 +2430,19 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2288,10 +2465,10 @@
         <v>-7162</v>
       </c>
       <c r="H39">
-        <v>-16.710999999999999</v>
+        <v>-16.711</v>
       </c>
       <c r="I39">
-        <v>-7.1619999999999999</v>
+        <v>-7.162</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2306,13 +2483,19 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2335,10 +2518,10 @@
         <v>-7287</v>
       </c>
       <c r="H40">
-        <v>3.1110000000000002</v>
+        <v>3.111</v>
       </c>
       <c r="I40">
-        <v>-7.2869999999999999</v>
+        <v>-7.287</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2353,13 +2536,19 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2382,7 +2571,7 @@
         <v>-9190</v>
       </c>
       <c r="H41">
-        <v>17.835999999999999</v>
+        <v>17.836</v>
       </c>
       <c r="I41">
         <v>-9.19</v>
@@ -2400,13 +2589,19 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2429,7 +2624,7 @@
         <v>-18471</v>
       </c>
       <c r="H42">
-        <v>-3.7120000000000002</v>
+        <v>-3.712</v>
       </c>
       <c r="I42">
         <v>-18.471</v>
@@ -2447,13 +2642,19 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2476,7 +2677,7 @@
         <v>-7931</v>
       </c>
       <c r="H43">
-        <v>20.905999999999999</v>
+        <v>20.906</v>
       </c>
       <c r="I43">
         <v>-7.931</v>
@@ -2494,13 +2695,19 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2523,10 +2730,10 @@
         <v>-12688</v>
       </c>
       <c r="H44">
-        <v>7.2190000000000003</v>
+        <v>7.219</v>
       </c>
       <c r="I44">
-        <v>-12.688000000000001</v>
+        <v>-12.688</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -2541,13 +2748,19 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2570,10 +2783,10 @@
         <v>-6269</v>
       </c>
       <c r="H45">
-        <v>4.1219999999999999</v>
+        <v>4.122</v>
       </c>
       <c r="I45">
-        <v>-6.2690000000000001</v>
+        <v>-6.269</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2588,13 +2801,19 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2617,10 +2836,10 @@
         <v>-5049</v>
       </c>
       <c r="H46">
-        <v>5.8209999999999997</v>
+        <v>5.821</v>
       </c>
       <c r="I46">
-        <v>-5.0490000000000004</v>
+        <v>-5.049</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2635,13 +2854,19 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2682,13 +2907,19 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2711,10 +2942,10 @@
         <v>-3322</v>
       </c>
       <c r="H48">
-        <v>-3.0960000000000001</v>
+        <v>-3.096</v>
       </c>
       <c r="I48">
-        <v>-3.3220000000000001</v>
+        <v>-3.322</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2729,13 +2960,19 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2761,7 +2998,7 @@
         <v>-15.478</v>
       </c>
       <c r="I49">
-        <v>-27.170999999999999</v>
+        <v>-27.171</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2776,13 +3013,19 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2823,13 +3066,19 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2852,7 +3101,7 @@
         <v>-23288</v>
       </c>
       <c r="H51">
-        <v>-2.3490000000000002</v>
+        <v>-2.349</v>
       </c>
       <c r="I51">
         <v>-23.288</v>
@@ -2870,14 +3119,19 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/1.2/order(1, 1).xlsx
+++ b/data/1.2/order(1, 1).xlsx
@@ -513,10 +513,10 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>1662789600</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>17</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="L4">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -672,10 +672,10 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="L5">
-        <v>6.5</v>
+        <v>1662791400</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>1662804000</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>2.5</v>
+        <v>1662777000</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>19</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>1662775200</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>19</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="L10">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>10</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>1662778800</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1043,10 +1043,10 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L12">
-        <v>7.5</v>
+        <v>1662796800</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>14</v>
       </c>
       <c r="L13">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>14</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>1662775200</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>1662775200</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>12</v>
       </c>
       <c r="L16">
-        <v>4.5</v>
+        <v>1662784200</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>10</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1361,10 +1361,10 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L18">
-        <v>8.5</v>
+        <v>1662798600</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L20">
-        <v>6.5</v>
+        <v>1662791400</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1520,10 +1520,10 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>10</v>
+        <v>1662802200</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>13</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>1662778800</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1626,10 +1626,10 @@
         <v>1</v>
       </c>
       <c r="K23">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L23">
-        <v>9.5</v>
+        <v>1662802200</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1679,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L24">
-        <v>5.5</v>
+        <v>1662786000</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>18</v>
       </c>
       <c r="L25">
-        <v>7.5</v>
+        <v>1662795000</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>6</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>1662771600</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>9</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>1662786000</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>16</v>
       </c>
       <c r="L28">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>16</v>
       </c>
       <c r="L29">
-        <v>7.5</v>
+        <v>1662795000</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>18</v>
       </c>
       <c r="L30">
-        <v>2.5</v>
+        <v>1662777000</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>18</v>
       </c>
       <c r="L31">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>1662771600</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>1</v>
       </c>
       <c r="K33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L33">
-        <v>8</v>
+        <v>1662796800</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>2</v>
       </c>
       <c r="L34">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>18</v>
       </c>
       <c r="L35">
-        <v>4.5</v>
+        <v>1662784200</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>14</v>
       </c>
       <c r="L36">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>13</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>1662771600</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>10</v>
       </c>
       <c r="L38">
-        <v>6</v>
+        <v>1662789600</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>18</v>
       </c>
       <c r="L39">
-        <v>9.5</v>
+        <v>1662802200</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>17</v>
       </c>
       <c r="L40">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>1662771600</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         <v>1</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>10.5</v>
+        <v>1662805800</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2686,10 +2686,10 @@
         <v>1</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L43">
-        <v>10</v>
+        <v>1662804000</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>3</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>1662775200</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>17</v>
       </c>
       <c r="L45">
-        <v>8</v>
+        <v>1662796800</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>13</v>
       </c>
       <c r="L46">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>17</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>1662778800</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>6</v>
       </c>
       <c r="L48">
-        <v>3</v>
+        <v>1662778800</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>9</v>
       </c>
       <c r="L49">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>16</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>1662775200</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -3110,10 +3110,10 @@
         <v>1</v>
       </c>
       <c r="K51">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="L51">
-        <v>8</v>
+        <v>1662798600</v>
       </c>
       <c r="M51">
         <v>0</v>

--- a/data/1.2/order(1, 1).xlsx
+++ b/data/1.2/order(1, 1).xlsx
@@ -513,10 +513,10 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>1662789600</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>17</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="L4">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -672,10 +672,10 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="L5">
-        <v>6.5</v>
+        <v>1662791400</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>1662802200</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>2.5</v>
+        <v>1662777000</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>19</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>1662775200</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>19</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="L10">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>10</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>1662778800</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1043,10 +1043,10 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L12">
-        <v>7.5</v>
+        <v>1662796800</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>14</v>
       </c>
       <c r="L13">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>14</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>1662775200</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>1662775200</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>12</v>
       </c>
       <c r="L16">
-        <v>4.5</v>
+        <v>1662784200</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>10</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1361,10 +1361,10 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="L18">
-        <v>8.5</v>
+        <v>1662798600</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L20">
-        <v>6.5</v>
+        <v>1662791400</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>17</v>
       </c>
       <c r="L21">
-        <v>10</v>
+        <v>1662804000</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>13</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>1662778800</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1626,10 +1626,10 @@
         <v>1</v>
       </c>
       <c r="K23">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L23">
-        <v>9.5</v>
+        <v>1662802200</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1679,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L24">
-        <v>5.5</v>
+        <v>1662786000</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>18</v>
       </c>
       <c r="L25">
-        <v>7.5</v>
+        <v>1662795000</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>6</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>1662771600</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>9</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>1662786000</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>16</v>
       </c>
       <c r="L28">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>16</v>
       </c>
       <c r="L29">
-        <v>7.5</v>
+        <v>1662795000</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>18</v>
       </c>
       <c r="L30">
-        <v>2.5</v>
+        <v>1662777000</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>18</v>
       </c>
       <c r="L31">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>1662771600</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>1</v>
       </c>
       <c r="K33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L33">
-        <v>8</v>
+        <v>1662796800</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>2</v>
       </c>
       <c r="L34">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>18</v>
       </c>
       <c r="L35">
-        <v>4.5</v>
+        <v>1662784200</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>14</v>
       </c>
       <c r="L36">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>13</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>1662771600</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>10</v>
       </c>
       <c r="L38">
-        <v>6</v>
+        <v>1662789600</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>18</v>
       </c>
       <c r="L39">
-        <v>9.5</v>
+        <v>1662802200</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>17</v>
       </c>
       <c r="L40">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>1662771600</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         <v>1</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>10.5</v>
+        <v>1662805800</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2686,10 +2686,10 @@
         <v>1</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L43">
-        <v>10</v>
+        <v>1662804000</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>3</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>1662775200</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>17</v>
       </c>
       <c r="L45">
-        <v>8</v>
+        <v>1662796800</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>13</v>
       </c>
       <c r="L46">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>17</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>1662778800</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>6</v>
       </c>
       <c r="L48">
-        <v>3</v>
+        <v>1662778800</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>9</v>
       </c>
       <c r="L49">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>16</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>1662775200</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -3110,10 +3110,10 @@
         <v>1</v>
       </c>
       <c r="K51">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>8</v>
+        <v>1662795000</v>
       </c>
       <c r="M51">
         <v>0</v>

--- a/data/1.2/order(1, 1).xlsx
+++ b/data/1.2/order(1, 1).xlsx
@@ -513,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L2">
-        <v>1662789600</v>
+        <v>1662787800</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1662791400</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -728,13 +728,13 @@
         <v>17</v>
       </c>
       <c r="L6">
-        <v>1662804000</v>
+        <v>1662802200</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L8">
-        <v>1662775200</v>
+        <v>1662773400</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1662778800</v>
+        <v>1662777000</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1043,16 +1043,16 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L12">
-        <v>1662796800</v>
+        <v>1662795000</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1149,16 +1149,16 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L14">
-        <v>1662775200</v>
+        <v>1662773400</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1205,13 +1205,13 @@
         <v>4</v>
       </c>
       <c r="L15">
-        <v>1662775200</v>
+        <v>1662773400</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1252,19 +1252,19 @@
         <v>11.418</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="L16">
-        <v>1662784200</v>
+        <v>-1</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1662798600</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L20">
         <v>1662791400</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L21">
         <v>1662802200</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>13</v>
       </c>
       <c r="L22">
-        <v>1662778800</v>
+        <v>1662777000</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="K23">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <v>1662802200</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1679,16 +1679,16 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L24">
-        <v>1662786000</v>
+        <v>1662787800</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1788,13 +1788,13 @@
         <v>6</v>
       </c>
       <c r="L26">
-        <v>1662771600</v>
+        <v>1662769800</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -1841,13 +1841,13 @@
         <v>9</v>
       </c>
       <c r="L27">
-        <v>1662786000</v>
+        <v>1662787800</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="K28">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>1662787800</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="K29">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>1662795000</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -2106,13 +2106,13 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>1662771600</v>
+        <v>1662769800</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -2156,16 +2156,16 @@
         <v>1</v>
       </c>
       <c r="K33">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>1662796800</v>
+        <v>1662795000</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="K36">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L36">
         <v>1662787800</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>13</v>
       </c>
       <c r="L37">
-        <v>1662771600</v>
+        <v>1662769800</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -2424,13 +2424,13 @@
         <v>10</v>
       </c>
       <c r="L38">
-        <v>1662789600</v>
+        <v>1662787800</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -2583,13 +2583,13 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>1662771600</v>
+        <v>1662769800</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L42">
         <v>1662805800</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -2686,16 +2686,16 @@
         <v>1</v>
       </c>
       <c r="K43">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>1662804000</v>
+        <v>1662802200</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -2742,13 +2742,13 @@
         <v>3</v>
       </c>
       <c r="L44">
-        <v>1662775200</v>
+        <v>1662773400</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -2901,13 +2901,13 @@
         <v>17</v>
       </c>
       <c r="L47">
-        <v>1662778800</v>
+        <v>1662777000</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -2951,16 +2951,16 @@
         <v>1</v>
       </c>
       <c r="K48">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L48">
-        <v>1662778800</v>
+        <v>1662777000</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -3060,13 +3060,13 @@
         <v>16</v>
       </c>
       <c r="L50">
-        <v>1662775200</v>
+        <v>1662773400</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -3110,16 +3110,16 @@
         <v>1</v>
       </c>
       <c r="K51">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L51">
-        <v>1662798600</v>
+        <v>1662796800</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <v>11</v>
+        <v>1663223400</v>
       </c>
       <c r="O51">
         <v>0</v>

--- a/data/1.2/order(1, 1).xlsx
+++ b/data/1.2/order(1, 1).xlsx
@@ -516,7 +516,7 @@
         <v>16</v>
       </c>
       <c r="L2">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>17</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="L4">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="L5">
-        <v>6.5</v>
+        <v>1662791400</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>17</v>
       </c>
       <c r="L6">
-        <v>9.5</v>
+        <v>1662802200</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>2.5</v>
+        <v>1662777000</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>15</v>
       </c>
       <c r="L8">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>19</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="L10">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.5</v>
+        <v>1662777000</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>16</v>
       </c>
       <c r="L12">
-        <v>7.5</v>
+        <v>1662795000</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>14</v>
       </c>
       <c r="L13">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>12</v>
       </c>
       <c r="L14">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="L15">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>10</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>3</v>
       </c>
       <c r="L18">
-        <v>8.5</v>
+        <v>1662798600</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>8</v>
       </c>
       <c r="L20">
-        <v>6.5</v>
+        <v>1662791400</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>13</v>
       </c>
       <c r="L21">
-        <v>9.5</v>
+        <v>1662802200</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>13</v>
       </c>
       <c r="L22">
-        <v>2.5</v>
+        <v>1662777000</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>2</v>
       </c>
       <c r="L23">
-        <v>9.5</v>
+        <v>1662802200</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>11</v>
       </c>
       <c r="L24">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>18</v>
       </c>
       <c r="L25">
-        <v>7.5</v>
+        <v>1662795000</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>6</v>
       </c>
       <c r="L26">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>9</v>
       </c>
       <c r="L27">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>7.5</v>
+        <v>1662795000</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>18</v>
       </c>
       <c r="L30">
-        <v>2.5</v>
+        <v>1662777000</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>18</v>
       </c>
       <c r="L31">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>2</v>
       </c>
       <c r="L33">
-        <v>7.5</v>
+        <v>1662795000</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>2</v>
       </c>
       <c r="L34">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>18</v>
       </c>
       <c r="L35">
-        <v>4.5</v>
+        <v>1662784200</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>12</v>
       </c>
       <c r="L36">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>13</v>
       </c>
       <c r="L37">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>10</v>
       </c>
       <c r="L38">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>18</v>
       </c>
       <c r="L39">
-        <v>9.5</v>
+        <v>1662802200</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>17</v>
       </c>
       <c r="L40">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>3</v>
       </c>
       <c r="L42">
-        <v>10.5</v>
+        <v>1662805800</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>9.5</v>
+        <v>1662802200</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>3</v>
       </c>
       <c r="L44">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>17</v>
       </c>
       <c r="L45">
-        <v>8</v>
+        <v>1662796800</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>13</v>
       </c>
       <c r="L46">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>17</v>
       </c>
       <c r="L47">
-        <v>2.5</v>
+        <v>1662777000</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>11</v>
       </c>
       <c r="L48">
-        <v>2.5</v>
+        <v>1662777000</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>9</v>
       </c>
       <c r="L49">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>16</v>
       </c>
       <c r="L50">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>9</v>
       </c>
       <c r="L51">
-        <v>8</v>
+        <v>1662796800</v>
       </c>
       <c r="M51">
         <v>0</v>

--- a/data/1.2/order(1, 1).xlsx
+++ b/data/1.2/order(1, 1).xlsx
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1661422500</v>
+        <v>-373.75</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -513,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>1662787800</v>
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1661474400</v>
+        <v>-359.3333333333333</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1661568300</v>
+        <v>-333.25</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1661575800</v>
+        <v>-331.1666666666667</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>1662791400</v>
@@ -698,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1661614200</v>
+        <v>-320.5</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -725,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>1662802200</v>
@@ -751,7 +751,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1661662200</v>
+        <v>-307.1666666666667</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -804,7 +804,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1661846700</v>
+        <v>-255.9166666666667</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1661938200</v>
+        <v>-230.5</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1661999100</v>
+        <v>-213.5833333333333</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1662001200</v>
+        <v>-213</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>1662777000</v>
@@ -1016,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1662012600</v>
+        <v>-209.8333333333333</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L12">
         <v>1662795000</v>
@@ -1069,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1662102900</v>
+        <v>-184.75</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1662108300</v>
+        <v>-183.25</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1175,7 +1175,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1662109500</v>
+        <v>-182.9166666666667</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1228,7 +1228,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1662135000</v>
+        <v>-175.8333333333333</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1252,16 +1252,16 @@
         <v>11.418</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>1662784200</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>1663223400</v>
@@ -1281,7 +1281,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1662164700</v>
+        <v>-167.5833333333333</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1662171900</v>
+        <v>-165.5833333333333</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L18">
         <v>1662798600</v>
@@ -1387,7 +1387,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1662178200</v>
+        <v>-163.8333333333333</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1662183000</v>
+        <v>-162.5</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1662791400</v>
@@ -1493,7 +1493,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1662205200</v>
+        <v>-156.3333333333333</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -1520,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1662802200</v>
@@ -1546,7 +1546,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1662213900</v>
+        <v>-153.9166666666667</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="K22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L22">
         <v>1662777000</v>
@@ -1599,7 +1599,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1662215100</v>
+        <v>-153.5833333333333</v>
       </c>
       <c r="C23">
         <v>9</v>
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L23">
         <v>1662802200</v>
@@ -1652,7 +1652,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1662215700</v>
+        <v>-153.4166666666667</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L24">
         <v>1662787800</v>
@@ -1705,7 +1705,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1662217800</v>
+        <v>-152.8333333333333</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L25">
         <v>1662795000</v>
@@ -1758,7 +1758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1662220200</v>
+        <v>-152.1666666666667</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1662224700</v>
+        <v>-150.9166666666667</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -1838,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="K27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L27">
         <v>1662787800</v>
@@ -1864,7 +1864,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1662262200</v>
+        <v>-140.5</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -1891,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L28">
         <v>1662787800</v>
@@ -1917,7 +1917,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1662266400</v>
+        <v>-139.3333333333333</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -1944,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L29">
         <v>1662795000</v>
@@ -1970,7 +1970,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1662285000</v>
+        <v>-134.1666666666667</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1997,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="K30">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L30">
         <v>1662777000</v>
@@ -2023,7 +2023,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1662296100</v>
+        <v>-131.0833333333333</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2076,7 +2076,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1662305100</v>
+        <v>-128.5833333333333</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1662305400</v>
+        <v>-128.5</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -2156,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L33">
         <v>1662795000</v>
@@ -2182,7 +2182,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1662306000</v>
+        <v>-128.3333333333333</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2235,7 +2235,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1662308700</v>
+        <v>-127.5833333333333</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -2262,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="K35">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L35">
         <v>1662784200</v>
@@ -2288,7 +2288,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1662309900</v>
+        <v>-127.25</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -2315,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="K36">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L36">
         <v>1662787800</v>
@@ -2341,7 +2341,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1662337500</v>
+        <v>-119.5833333333333</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1662341100</v>
+        <v>-118.5833333333333</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="K38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L38">
         <v>1662787800</v>
@@ -2447,7 +2447,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1662341700</v>
+        <v>-118.4166666666667</v>
       </c>
       <c r="C39">
         <v>9</v>
@@ -2474,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="K39">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L39">
         <v>1662802200</v>
@@ -2500,7 +2500,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1662352200</v>
+        <v>-115.5</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="K40">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="L40">
         <v>1662787800</v>
@@ -2553,7 +2553,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1662354900</v>
+        <v>-114.75</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1662356700</v>
+        <v>-114.25</v>
       </c>
       <c r="C42">
         <v>10</v>
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L42">
         <v>1662805800</v>
@@ -2659,7 +2659,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1662357000</v>
+        <v>-114.1666666666667</v>
       </c>
       <c r="C43">
         <v>9</v>
@@ -2686,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L43">
         <v>1662802200</v>
@@ -2712,7 +2712,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1662358200</v>
+        <v>-113.8333333333333</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2765,7 +2765,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1662361800</v>
+        <v>-112.8333333333333</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="K45">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="L45">
         <v>1662796800</v>
@@ -2818,7 +2818,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1662362400</v>
+        <v>-112.6666666666667</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -2845,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="K46">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L46">
         <v>1662787800</v>
@@ -2871,7 +2871,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1662363900</v>
+        <v>-112.25</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="K47">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="L47">
         <v>1662777000</v>
@@ -2924,7 +2924,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1662370200</v>
+        <v>-110.5</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -2951,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="K48">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L48">
         <v>1662777000</v>
@@ -2977,7 +2977,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1662381000</v>
+        <v>-107.5</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3030,7 +3030,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1662390900</v>
+        <v>-104.75</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3083,7 +3083,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1662390900</v>
+        <v>-104.75</v>
       </c>
       <c r="C51">
         <v>7</v>
@@ -3110,7 +3110,7 @@
         <v>1</v>
       </c>
       <c r="K51">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L51">
         <v>1662796800</v>
